--- a/Tool/excel_to_lua/bullet.xlsx
+++ b/Tool/excel_to_lua/bullet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,27 +84,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>随碟附送的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>565</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电饭锅</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发个非官方</t>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/bullet_1.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,23 +454,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="4" max="4" width="44.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -475,69 +490,79 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
         <v>123</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7">
         <v>123</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
